--- a/dist/document/product_doctor/Ly Van Khai.xlsx
+++ b/dist/document/product_doctor/Ly Van Khai.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khailv/Desktop/lamgift/dist/document/product_doctor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B2AE22C-8839-9C4E-847E-7D7BB0422C73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F030D35D-97F0-C74E-A642-DE79D12DEBA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="20960" windowHeight="16740" activeTab="1" xr2:uid="{EC198BD0-BD87-504A-9348-023B77747D89}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Index!$A$1:$F$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Index!$A$1:$F$45</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Email</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>DoctorName</t>
+  </si>
+  <si>
+    <t>FAG001</t>
   </si>
 </sst>
 </file>
@@ -181,7 +184,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -189,12 +192,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -218,6 +236,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -260,55 +281,55 @@
         </row>
         <row r="3">
           <cell r="B3" t="str">
-            <v>BON008</v>
+            <v>BAN003</v>
           </cell>
           <cell r="C3" t="str">
-            <v>Bonzacim (Rosuvastatin 10mg)</v>
+            <v>Banitase (Trimebutin,dehydrocholic, pancreatin, bromelain, simethicone)</v>
           </cell>
           <cell r="D3">
-            <v>8900</v>
+            <v>6900</v>
           </cell>
           <cell r="E3">
-            <v>55</v>
+            <v>52</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4" t="str">
-            <v>OME001</v>
+            <v>BON008</v>
           </cell>
           <cell r="C4" t="str">
-            <v>BS One (Omega3 Fish Oil 1000mg)</v>
+            <v>Bonzacim (Rosuvastatin 10mg)</v>
           </cell>
           <cell r="D4">
-            <v>4000</v>
+            <v>8900</v>
           </cell>
           <cell r="E4">
-            <v>45</v>
+            <v>55</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5" t="str">
-            <v>CAR007</v>
+            <v>OME001</v>
           </cell>
           <cell r="C5" t="str">
-            <v>Cardorite (Rosuvastatin 20mg)</v>
+            <v>BS One (Omega3 Fish Oil 1000mg)</v>
           </cell>
           <cell r="D5">
-            <v>13000</v>
+            <v>4000</v>
           </cell>
           <cell r="E5">
-            <v>55</v>
+            <v>45</v>
           </cell>
         </row>
         <row r="6">
           <cell r="B6" t="str">
-            <v>CEF033</v>
+            <v>CAR007</v>
           </cell>
           <cell r="C6" t="str">
-            <v>Cefass (Etoricoxib 90mg)</v>
+            <v>Cardorite (Rosuvastatin 20mg)</v>
           </cell>
           <cell r="D6">
-            <v>9000</v>
+            <v>13000</v>
           </cell>
           <cell r="E6">
             <v>55</v>
@@ -316,41 +337,41 @@
         </row>
         <row r="7">
           <cell r="B7" t="str">
-            <v>CEL019</v>
+            <v>CEF033</v>
           </cell>
           <cell r="C7" t="str">
-            <v>Celevox (Levofloxacin 500mg)</v>
+            <v>Cefass (Etoricoxib 90mg)</v>
           </cell>
           <cell r="D7">
-            <v>12000</v>
+            <v>9000</v>
           </cell>
           <cell r="E7">
-            <v>42</v>
+            <v>55</v>
           </cell>
         </row>
         <row r="8">
           <cell r="B8" t="str">
-            <v>CEL003</v>
+            <v>CEL019</v>
           </cell>
           <cell r="C8" t="str">
-            <v>Celivite (Multivitamin &amp; Minerals)</v>
+            <v>Celevox (Levofloxacin 500mg)</v>
           </cell>
           <cell r="D8">
-            <v>3000</v>
+            <v>12000</v>
           </cell>
           <cell r="E8">
-            <v>55</v>
+            <v>42</v>
           </cell>
         </row>
         <row r="9">
           <cell r="B9" t="str">
-            <v>ROW002</v>
+            <v>CEL003</v>
           </cell>
           <cell r="C9" t="str">
-            <v>Chondrasil (Allopurinol 300mg)</v>
+            <v>Celivite (Multivitamin &amp; Minerals)</v>
           </cell>
           <cell r="D9">
-            <v>3700</v>
+            <v>3000</v>
           </cell>
           <cell r="E9">
             <v>55</v>
@@ -358,27 +379,27 @@
         </row>
         <row r="10">
           <cell r="B10" t="str">
-            <v>CLE002</v>
+            <v>ROW002</v>
           </cell>
           <cell r="C10" t="str">
-            <v>Cimrinat (Clarithomycin 500mg)</v>
+            <v>Chondrasil (Allopurinol 300mg)</v>
           </cell>
           <cell r="D10">
-            <v>24000</v>
+            <v>3700</v>
           </cell>
           <cell r="E10">
-            <v>52</v>
+            <v>55</v>
           </cell>
         </row>
         <row r="11">
           <cell r="B11" t="str">
-            <v>ESO002</v>
+            <v>CLE002</v>
           </cell>
           <cell r="C11" t="str">
-            <v>Esofar (Esomeprazole 40mg)</v>
+            <v>Cimrinat (Clarithomycin 500mg)</v>
           </cell>
           <cell r="D11">
-            <v>14000</v>
+            <v>24000</v>
           </cell>
           <cell r="E11">
             <v>52</v>
@@ -386,27 +407,27 @@
         </row>
         <row r="12">
           <cell r="B12" t="str">
-            <v>ERA001</v>
+            <v>ESO002</v>
           </cell>
           <cell r="C12" t="str">
-            <v>Esotrax (Esomeprazole 20mg)</v>
+            <v>Esofar (Esomeprazole 40mg)</v>
           </cell>
           <cell r="D12">
-            <v>10800</v>
+            <v>14000</v>
           </cell>
           <cell r="E12">
-            <v>50</v>
+            <v>52</v>
           </cell>
         </row>
         <row r="13">
           <cell r="B13" t="str">
-            <v>FAG001</v>
+            <v>ERA001</v>
           </cell>
           <cell r="C13" t="str">
-            <v>Fagendol (Flunarizine 5mg)</v>
+            <v>Esotrax (Esomeprazole 20mg)</v>
           </cell>
           <cell r="D13">
-            <v>2600</v>
+            <v>10800</v>
           </cell>
           <cell r="E13">
             <v>50</v>
@@ -414,69 +435,69 @@
         </row>
         <row r="14">
           <cell r="B14" t="str">
-            <v>HEM005</v>
+            <v>FAG001</v>
           </cell>
           <cell r="C14" t="str">
-            <v>Hemol (Methocarbamol 750mg)</v>
+            <v>Fagendol (Flunarizine 5mg)</v>
           </cell>
           <cell r="D14">
-            <v>3100</v>
+            <v>2600</v>
           </cell>
           <cell r="E14">
-            <v>37</v>
+            <v>50</v>
           </cell>
         </row>
         <row r="15">
           <cell r="B15" t="str">
-            <v>LOX002</v>
+            <v>HEM005</v>
           </cell>
           <cell r="C15" t="str">
-            <v>Loxcip (Fexofenadine 180mg)</v>
+            <v>Hemol (Methocarbamol 750mg)</v>
           </cell>
           <cell r="D15">
-            <v>4700</v>
+            <v>3100</v>
           </cell>
           <cell r="E15">
-            <v>40</v>
+            <v>37</v>
           </cell>
         </row>
         <row r="16">
           <cell r="B16" t="str">
-            <v>LUC001</v>
+            <v>LOX002</v>
           </cell>
           <cell r="C16" t="str">
-            <v>Lucass 200 (Cefpodoxime)</v>
+            <v>Loxcip (Fexofenadine 180mg)</v>
           </cell>
           <cell r="D16">
-            <v>14700</v>
+            <v>4700</v>
           </cell>
           <cell r="E16">
-            <v>54</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="17">
           <cell r="B17" t="str">
-            <v>MAX008</v>
+            <v>LUC001</v>
           </cell>
           <cell r="C17" t="str">
-            <v>Maxezole 40 (Esomeprazole 40mg)</v>
+            <v>Lucass 200 (Cefpodoxime)</v>
           </cell>
           <cell r="D17">
-            <v>14000</v>
+            <v>14700</v>
           </cell>
           <cell r="E17">
-            <v>55</v>
+            <v>54</v>
           </cell>
         </row>
         <row r="18">
           <cell r="B18" t="str">
-            <v>MEX001</v>
+            <v>MAX008</v>
           </cell>
           <cell r="C18" t="str">
-            <v>Mexams (Montelukast 5mg)</v>
+            <v>Maxezole 40 (Esomeprazole 40mg)</v>
           </cell>
           <cell r="D18">
-            <v>5100</v>
+            <v>14000</v>
           </cell>
           <cell r="E18">
             <v>55</v>
@@ -484,195 +505,195 @@
         </row>
         <row r="19">
           <cell r="B19" t="str">
-            <v>TRI025</v>
+            <v>MEX001</v>
           </cell>
           <cell r="C19" t="str">
-            <v>Noraquick (Gabapentin 300mg)</v>
+            <v>Mexams (Montelukast 5mg)</v>
           </cell>
           <cell r="D19">
-            <v>6000</v>
+            <v>5100</v>
           </cell>
           <cell r="E19">
-            <v>54</v>
+            <v>55</v>
           </cell>
         </row>
         <row r="20">
           <cell r="B20" t="str">
-            <v>SOF001</v>
+            <v>TRI025</v>
           </cell>
           <cell r="C20" t="str">
-            <v>Oftofacin (Atorvastatin 20mg)</v>
+            <v>Noraquick (Gabapentin 300mg)</v>
           </cell>
           <cell r="D20">
-            <v>5000</v>
+            <v>6000</v>
           </cell>
           <cell r="E20">
-            <v>52</v>
+            <v>54</v>
           </cell>
         </row>
         <row r="21">
           <cell r="B21" t="str">
-            <v>OPT001</v>
+            <v>SOF001</v>
           </cell>
           <cell r="C21" t="str">
-            <v>Optipan (Diacerhein 50mg)</v>
+            <v>Oftofacin (Atorvastatin 20mg)</v>
           </cell>
           <cell r="D21">
-            <v>9900</v>
+            <v>5000</v>
           </cell>
           <cell r="E21">
-            <v>40</v>
+            <v>52</v>
           </cell>
         </row>
         <row r="22">
           <cell r="B22" t="str">
-            <v>OPE003</v>
+            <v>OPT001</v>
           </cell>
           <cell r="C22" t="str">
-            <v>Originko (Ginkgo biloba 80mg)</v>
+            <v>Optipan (Diacerhein 50mg)</v>
           </cell>
           <cell r="D22">
-            <v>8800</v>
+            <v>9900</v>
           </cell>
           <cell r="E22">
-            <v>37</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="23">
           <cell r="B23" t="str">
-            <v>PAL001</v>
+            <v>OPE003</v>
           </cell>
           <cell r="C23" t="str">
-            <v>Palibone (Alendronic 70mg)</v>
+            <v>Originko (Ginkgo biloba 80mg)</v>
           </cell>
           <cell r="D23">
-            <v>75000</v>
+            <v>8800</v>
           </cell>
           <cell r="E23">
-            <v>40</v>
+            <v>37</v>
           </cell>
         </row>
         <row r="24">
           <cell r="B24" t="str">
-            <v>MER004</v>
+            <v>PAL001</v>
           </cell>
           <cell r="C24" t="str">
-            <v>Pangelong (Rebamipide 100mg)</v>
+            <v>Palibone (Alendronic 70mg)</v>
           </cell>
           <cell r="D24">
-            <v>4400</v>
+            <v>75000</v>
           </cell>
           <cell r="E24">
-            <v>43</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="25">
           <cell r="B25" t="str">
-            <v>RAB003</v>
+            <v>MER004</v>
           </cell>
           <cell r="C25" t="str">
-            <v>Pharcotinex</v>
+            <v>Pangelong (Rebamipide 100mg)</v>
           </cell>
           <cell r="D25">
-            <v>3600</v>
+            <v>4400</v>
           </cell>
           <cell r="E25">
-            <v>35</v>
+            <v>43</v>
           </cell>
         </row>
         <row r="26">
           <cell r="B26" t="str">
-            <v>PIC002</v>
+            <v>RAB003</v>
           </cell>
           <cell r="C26" t="str">
-            <v>Picencal (Calcium &amp; Vitamin D)</v>
+            <v>Pharcotinex</v>
           </cell>
           <cell r="D26">
-            <v>2900</v>
+            <v>3600</v>
           </cell>
           <cell r="E26">
-            <v>45</v>
+            <v>35</v>
           </cell>
         </row>
         <row r="27">
           <cell r="B27" t="str">
-            <v>SAG001</v>
+            <v>PIC002</v>
           </cell>
           <cell r="C27" t="str">
-            <v>Sagason (Clopidogrel 75mg)</v>
+            <v>Picencal (Calcium &amp; Vitamin D)</v>
           </cell>
           <cell r="D27">
-            <v>7000</v>
+            <v>2900</v>
           </cell>
           <cell r="E27">
-            <v>54</v>
+            <v>45</v>
           </cell>
         </row>
         <row r="28">
           <cell r="B28" t="str">
-            <v>SAN009</v>
+            <v>SAG001</v>
           </cell>
           <cell r="C28" t="str">
-            <v>Sanaperol (Rabeprazol 20mg)</v>
+            <v>Sagason (Clopidogrel 75mg)</v>
           </cell>
           <cell r="D28">
-            <v>7900</v>
+            <v>7000</v>
           </cell>
           <cell r="E28">
-            <v>53</v>
+            <v>54</v>
           </cell>
         </row>
         <row r="29">
           <cell r="B29" t="str">
-            <v>SOF003</v>
+            <v>SAN009</v>
           </cell>
           <cell r="C29" t="str">
-            <v>Sopezid (Esomeprazole 40mg)</v>
+            <v>Sanaperol (Rabeprazol 20mg)</v>
           </cell>
           <cell r="D29">
-            <v>15000</v>
+            <v>7900</v>
           </cell>
           <cell r="E29">
-            <v>55</v>
+            <v>53</v>
           </cell>
         </row>
         <row r="30">
           <cell r="B30" t="str">
-            <v>TAL005</v>
+            <v>SOF003</v>
           </cell>
           <cell r="C30" t="str">
-            <v>Talroma (Tiropramide 100mg)</v>
+            <v>Sopezid (Esomeprazole 40mg)</v>
           </cell>
           <cell r="D30">
-            <v>4500</v>
+            <v>15000</v>
           </cell>
           <cell r="E30">
-            <v>44</v>
+            <v>55</v>
           </cell>
         </row>
         <row r="31">
           <cell r="B31" t="str">
-            <v>TAR004</v>
+            <v>TAL005</v>
           </cell>
           <cell r="C31" t="str">
-            <v>Tarfloz (Ferrous fumarate 300mg)</v>
+            <v>Talroma (Tiropramide 100mg)</v>
           </cell>
           <cell r="D31">
-            <v>3600</v>
+            <v>4500</v>
           </cell>
           <cell r="E31">
-            <v>55</v>
+            <v>44</v>
           </cell>
         </row>
         <row r="32">
           <cell r="B32" t="str">
-            <v>UVO001</v>
+            <v>TAR004</v>
           </cell>
           <cell r="C32" t="str">
-            <v>Uvomo (Mosaprid citrat 5mg)</v>
+            <v>Tarfloz (Ferrous fumarate 300mg)</v>
           </cell>
           <cell r="D32">
-            <v>3300</v>
+            <v>3600</v>
           </cell>
           <cell r="E32">
             <v>55</v>
@@ -680,29 +701,57 @@
         </row>
         <row r="33">
           <cell r="B33" t="str">
-            <v>VIN005</v>
+            <v>TRI022</v>
           </cell>
           <cell r="C33" t="str">
-            <v>Vinsalamin (Mesalamin 400mg)</v>
+            <v>Trisova (Trimetazidine 20mg)</v>
           </cell>
           <cell r="D33">
-            <v>7999.9989999999998</v>
+            <v>1700</v>
           </cell>
           <cell r="E33">
-            <v>40</v>
+            <v>43</v>
           </cell>
         </row>
         <row r="34">
           <cell r="B34" t="str">
+            <v>UVO001</v>
+          </cell>
+          <cell r="C34" t="str">
+            <v>Uvomo (Mosaprid citrat 5mg)</v>
+          </cell>
+          <cell r="D34">
+            <v>3300</v>
+          </cell>
+          <cell r="E34">
+            <v>55</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="B35" t="str">
+            <v>VIN005</v>
+          </cell>
+          <cell r="C35" t="str">
+            <v>Vinsalamin (Mesalamin 400mg)</v>
+          </cell>
+          <cell r="D35">
+            <v>7999.9989999999998</v>
+          </cell>
+          <cell r="E35">
+            <v>40</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="B36" t="str">
             <v>ZAN002</v>
           </cell>
-          <cell r="C34" t="str">
+          <cell r="C36" t="str">
             <v>Zantagel (Oxethazaine, dried aluminum, magnesium)</v>
           </cell>
-          <cell r="D34">
+          <cell r="D36">
             <v>6926</v>
           </cell>
-          <cell r="E34">
+          <cell r="E36">
             <v>40</v>
           </cell>
         </row>
@@ -1614,10 +1663,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E8FE71F-5EFF-6041-BE28-D4CEB2AE74F8}">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1661,7 +1710,8 @@
         <v>15000</v>
       </c>
       <c r="D2" s="7">
-        <v>52</v>
+        <f>VLOOKUP($A2, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>55</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -1787,168 +1837,180 @@
       <c r="B11" s="8"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10" t="e">
+      <c r="E11" s="10">
+        <v>205</v>
+      </c>
+      <c r="F11" s="10" t="str">
         <f>VLOOKUP($E11, [2]Index!$A$2:$B$69, 2, FALSE)</f>
-        <v>#N/A</v>
+        <v>Trần Thị Diễm</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="10"/>
+      <c r="A12" s="3"/>
       <c r="B12" s="8"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="10">
-        <v>205</v>
+        <v>8</v>
       </c>
       <c r="F12" s="10" t="str">
         <f>VLOOKUP($E12, [2]Index!$A$2:$B$69, 2, FALSE)</f>
-        <v>Trần Thị Diễm</v>
+        <v>Lý Thanh Lãm</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="10">
+      <c r="A13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="6" t="str">
+        <f>VLOOKUP($A13, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
+        <v>Uvomo (Mosaprid citrat 5mg)</v>
+      </c>
+      <c r="C13" s="7">
+        <f>VLOOKUP($A13, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
+        <v>3300</v>
+      </c>
+      <c r="D13" s="7">
+        <f>VLOOKUP($A13, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="10">
         <v>8</v>
       </c>
-      <c r="F13" s="10" t="str">
-        <f>VLOOKUP($E13, [2]Index!$A$2:$B$69, 2, FALSE)</f>
+      <c r="F14" s="10" t="str">
+        <f>VLOOKUP($E14, [2]Index!$A$2:$B$69, 2, FALSE)</f>
         <v>Lý Thanh Lãm</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="6" t="str">
-        <f>VLOOKUP($A14, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
-        <v>Uvomo (Mosaprid citrat 5mg)</v>
-      </c>
-      <c r="C14" s="7">
-        <f>VLOOKUP($A14, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
-        <v>3300</v>
-      </c>
-      <c r="D14" s="7">
-        <f>VLOOKUP($A14, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
-        <v>55</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-    </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="10">
-        <v>8</v>
-      </c>
-      <c r="F15" s="10" t="str">
-        <f>VLOOKUP($E15, [2]Index!$A$2:$B$69, 2, FALSE)</f>
-        <v>Lý Thanh Lãm</v>
-      </c>
+      <c r="A15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="6" t="str">
+        <f>VLOOKUP($A15, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
+        <v>Cimrinat (Clarithomycin 500mg)</v>
+      </c>
+      <c r="C15" s="7">
+        <f>VLOOKUP($A15, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
+        <v>24000</v>
+      </c>
+      <c r="D15" s="7">
+        <f>VLOOKUP($A15, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>52</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="12"/>
-      <c r="B16" s="13"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="8"/>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10" t="e">
+      <c r="E16" s="10">
+        <v>142</v>
+      </c>
+      <c r="F16" s="10" t="str">
         <f>VLOOKUP($E16, [2]Index!$A$2:$B$69, 2, FALSE)</f>
-        <v>#N/A</v>
+        <v>Lý Văn Phái</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="12"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10" t="e">
+      <c r="A17" s="10"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10">
+        <v>205</v>
+      </c>
+      <c r="F17" s="10" t="str">
         <f>VLOOKUP($E17, [2]Index!$A$2:$B$69, 2, FALSE)</f>
-        <v>#N/A</v>
+        <v>Trần Thị Diễm</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="6" t="str">
-        <f>VLOOKUP($A18, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
-        <v>Cimrinat (Clarithomycin 500mg)</v>
-      </c>
-      <c r="C18" s="7">
-        <f>VLOOKUP($A18, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
-        <v>24000</v>
-      </c>
-      <c r="D18" s="7">
-        <f>VLOOKUP($A18, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
-        <v>52</v>
-      </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="10">
+        <v>8</v>
+      </c>
+      <c r="F18" s="10" t="str">
+        <f>VLOOKUP($E18, [2]Index!$A$2:$B$69, 2, FALSE)</f>
+        <v>Lý Thanh Lãm</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="10"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="10">
-        <v>142</v>
-      </c>
-      <c r="F19" s="10" t="str">
-        <f>VLOOKUP($E19, [2]Index!$A$2:$B$69, 2, FALSE)</f>
-        <v>Lý Văn Phái</v>
-      </c>
+      <c r="A19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="6" t="str">
+        <f>VLOOKUP($A19, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
+        <v>Cardorite (Rosuvastatin 20mg)</v>
+      </c>
+      <c r="C19" s="7">
+        <f>VLOOKUP($A19, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
+        <v>13000</v>
+      </c>
+      <c r="D19" s="7">
+        <f>VLOOKUP($A19, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="10"/>
+      <c r="A20" s="3"/>
       <c r="B20" s="8"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="10">
-        <v>205</v>
+        <v>22</v>
       </c>
       <c r="F20" s="10" t="str">
         <f>VLOOKUP($E20, [2]Index!$A$2:$B$69, 2, FALSE)</f>
-        <v>Trần Thị Diễm</v>
+        <v>Nguyễn Thị Kim Thuý</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="10">
+      <c r="A21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="6" t="str">
+        <f>VLOOKUP($A21, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
+        <v>Cefass (Etoricoxib 90mg)</v>
+      </c>
+      <c r="C21" s="7">
+        <f>VLOOKUP($A21, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
+        <v>9000</v>
+      </c>
+      <c r="D21" s="7">
+        <f>VLOOKUP($A21, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="3"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10">
         <v>8</v>
       </c>
-      <c r="F21" s="10" t="str">
-        <f>VLOOKUP($E21, [2]Index!$A$2:$B$69, 2, FALSE)</f>
+      <c r="F22" s="10" t="str">
+        <f>VLOOKUP($E22, [2]Index!$A$2:$B$69, 2, FALSE)</f>
         <v>Lý Thanh Lãm</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="6" t="str">
-        <f>VLOOKUP($A22, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
-        <v>Cardorite (Rosuvastatin 20mg)</v>
-      </c>
-      <c r="C22" s="7">
-        <f>VLOOKUP($A22, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
-        <v>13000</v>
-      </c>
-      <c r="D22" s="7">
-        <f>VLOOKUP($A22, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
-        <v>55</v>
-      </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
@@ -1956,11 +2018,11 @@
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
       <c r="E23" s="10">
-        <v>56</v>
-      </c>
-      <c r="F23" s="10" t="e">
+        <v>142</v>
+      </c>
+      <c r="F23" s="10" t="str">
         <f>VLOOKUP($E23, [2]Index!$A$2:$B$69, 2, FALSE)</f>
-        <v>#N/A</v>
+        <v>Lý Văn Phái</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1969,121 +2031,127 @@
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
       <c r="E24" s="10">
-        <v>57</v>
-      </c>
-      <c r="F24" s="10" t="e">
+        <v>205</v>
+      </c>
+      <c r="F24" s="10" t="str">
         <f>VLOOKUP($E24, [2]Index!$A$2:$B$69, 2, FALSE)</f>
-        <v>#N/A</v>
+        <v>Trần Thị Diễm</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="3"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="10">
-        <v>22</v>
-      </c>
-      <c r="F25" s="10" t="str">
-        <f>VLOOKUP($E25, [2]Index!$A$2:$B$69, 2, FALSE)</f>
-        <v>Nguyễn Thị Kim Thuý</v>
-      </c>
+      <c r="A25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="6" t="str">
+        <f>VLOOKUP($A25, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
+        <v>Picencal (Calcium &amp; Vitamin D)</v>
+      </c>
+      <c r="C25" s="7">
+        <f>VLOOKUP($A25, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
+        <v>2900</v>
+      </c>
+      <c r="D25" s="7">
+        <f>VLOOKUP($A25, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>45</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" s="6" t="str">
-        <f>VLOOKUP($A26, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
-        <v>Cefass (Etoricoxib 90mg)</v>
-      </c>
-      <c r="C26" s="7">
-        <f>VLOOKUP($A26, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
-        <v>9000</v>
-      </c>
-      <c r="D26" s="7">
-        <f>VLOOKUP($A26, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
-        <v>55</v>
-      </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="10">
+        <v>8</v>
+      </c>
+      <c r="F26" s="10" t="str">
+        <f>VLOOKUP($E26, [2]Index!$A$2:$B$69, 2, FALSE)</f>
+        <v>Lý Thanh Lãm</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="3"/>
+      <c r="A27" s="10"/>
       <c r="B27" s="8"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
       <c r="E27" s="10">
-        <v>8</v>
+        <v>142</v>
       </c>
       <c r="F27" s="10" t="str">
         <f>VLOOKUP($E27, [2]Index!$A$2:$B$69, 2, FALSE)</f>
-        <v>Lý Thanh Lãm</v>
+        <v>Lý Văn Phái</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="3"/>
+      <c r="A28" s="10"/>
       <c r="B28" s="8"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
       <c r="E28" s="10">
-        <v>142</v>
+        <v>205</v>
       </c>
       <c r="F28" s="10" t="str">
         <f>VLOOKUP($E28, [2]Index!$A$2:$B$69, 2, FALSE)</f>
-        <v>Lý Văn Phái</v>
+        <v>Trần Thị Diễm</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="3"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="10">
-        <v>205</v>
-      </c>
-      <c r="F29" s="10" t="str">
-        <f>VLOOKUP($E29, [2]Index!$A$2:$B$69, 2, FALSE)</f>
-        <v>Trần Thị Diễm</v>
-      </c>
+      <c r="A29" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="6" t="str">
+        <f>VLOOKUP($A29, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
+        <v>Pharcotinex</v>
+      </c>
+      <c r="C29" s="7">
+        <f>VLOOKUP($A29, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
+        <v>3600</v>
+      </c>
+      <c r="D29" s="7">
+        <f>VLOOKUP($A29, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" s="6" t="str">
-        <f>VLOOKUP($A30, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
-        <v>Picencal (Calcium &amp; Vitamin D)</v>
-      </c>
-      <c r="C30" s="7">
-        <f>VLOOKUP($A30, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
-        <v>2900</v>
-      </c>
-      <c r="D30" s="7">
-        <f>VLOOKUP($A30, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
-        <v>45</v>
-      </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="10">
+        <v>8</v>
+      </c>
+      <c r="F30" s="10" t="str">
+        <f>VLOOKUP($E30, [2]Index!$A$2:$B$69, 2, FALSE)</f>
+        <v>Lý Thanh Lãm</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="3"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="10">
-        <v>8</v>
-      </c>
-      <c r="F31" s="10" t="str">
-        <f>VLOOKUP($E31, [2]Index!$A$2:$B$69, 2, FALSE)</f>
-        <v>Lý Thanh Lãm</v>
-      </c>
+      <c r="A31" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="6" t="str">
+        <f>VLOOKUP($A31, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
+        <v>Celivite (Multivitamin &amp; Minerals)</v>
+      </c>
+      <c r="C31" s="7">
+        <f>VLOOKUP($A31, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
+        <v>3000</v>
+      </c>
+      <c r="D31" s="7">
+        <f>VLOOKUP($A31, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
       <c r="E32" s="10">
         <v>142</v>
       </c>
@@ -2093,157 +2161,177 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="10"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="10">
-        <v>205</v>
-      </c>
-      <c r="F33" s="10" t="str">
-        <f>VLOOKUP($E33, [2]Index!$A$2:$B$69, 2, FALSE)</f>
-        <v>Trần Thị Diễm</v>
-      </c>
+      <c r="A33" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="6" t="str">
+        <f>VLOOKUP($A33, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
+        <v>Noraquick (Gabapentin 300mg)</v>
+      </c>
+      <c r="C33" s="7">
+        <f>VLOOKUP($A33, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
+        <v>6000</v>
+      </c>
+      <c r="D33" s="7">
+        <f>VLOOKUP($A33, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>54</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B34" s="6" t="str">
-        <f>VLOOKUP($A34, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
-        <v>Pharcotinex</v>
-      </c>
-      <c r="C34" s="7">
-        <f>VLOOKUP($A34, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
-        <v>3600</v>
-      </c>
-      <c r="D34" s="7">
-        <f>VLOOKUP($A34, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
-        <v>35</v>
-      </c>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10">
+        <v>142</v>
+      </c>
+      <c r="F34" s="10" t="str">
+        <f>VLOOKUP($E34, [2]Index!$A$2:$B$69, 2, FALSE)</f>
+        <v>Lý Văn Phái</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="10"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
       <c r="E35" s="10">
-        <v>8</v>
+        <v>205</v>
       </c>
       <c r="F35" s="10" t="str">
         <f>VLOOKUP($E35, [2]Index!$A$2:$B$69, 2, FALSE)</f>
-        <v>Lý Thanh Lãm</v>
+        <v>Trần Thị Diễm</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="10"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10" t="e">
-        <f>VLOOKUP($E36, [2]Index!$A$2:$B$69, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="A36" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="6" t="str">
+        <f>VLOOKUP($A36, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
+        <v>Celevox (Levofloxacin 500mg)</v>
+      </c>
+      <c r="C36" s="7">
+        <f>VLOOKUP($A36, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
+        <v>12000</v>
+      </c>
+      <c r="D36" s="7">
+        <f>VLOOKUP($A36, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>42</v>
+      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="10"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10" t="e">
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10">
+        <v>142</v>
+      </c>
+      <c r="F37" s="10" t="str">
         <f>VLOOKUP($E37, [2]Index!$A$2:$B$69, 2, FALSE)</f>
-        <v>#N/A</v>
+        <v>Lý Văn Phái</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38" s="6" t="str">
-        <f>VLOOKUP($A38, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
-        <v>Celivite (Multivitamin &amp; Minerals)</v>
-      </c>
-      <c r="C38" s="7">
-        <f>VLOOKUP($A38, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
-        <v>3000</v>
-      </c>
-      <c r="D38" s="7">
-        <f>VLOOKUP($A38, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
-        <v>55</v>
-      </c>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10">
+        <v>205</v>
+      </c>
+      <c r="F38" s="10" t="str">
+        <f>VLOOKUP($E38, [2]Index!$A$2:$B$69, 2, FALSE)</f>
+        <v>Trần Thị Diễm</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10">
-        <v>142</v>
-      </c>
-      <c r="F39" s="10" t="str">
-        <f>VLOOKUP($E39, [2]Index!$A$2:$B$69, 2, FALSE)</f>
-        <v>Lý Văn Phái</v>
-      </c>
+      <c r="A39" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" s="6" t="str">
+        <f>VLOOKUP($A39, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
+        <v>Esotrax (Esomeprazole 20mg)</v>
+      </c>
+      <c r="C39" s="7">
+        <f>VLOOKUP($A39, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
+        <v>10800</v>
+      </c>
+      <c r="D39" s="7">
+        <f>VLOOKUP($A39, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
       <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10" t="e">
+      <c r="E40" s="10">
+        <v>205</v>
+      </c>
+      <c r="F40" s="10" t="str">
         <f>VLOOKUP($E40, [2]Index!$A$2:$B$69, 2, FALSE)</f>
-        <v>#N/A</v>
+        <v>Trần Thị Diễm</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10" t="e">
-        <f>VLOOKUP($E41, [2]Index!$A$2:$B$69, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="A41" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="6" t="str">
+        <f>VLOOKUP($A41, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
+        <v>Lucass 200 (Cefpodoxime)</v>
+      </c>
+      <c r="C41" s="7">
+        <f>VLOOKUP($A41, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
+        <v>14700</v>
+      </c>
+      <c r="D41" s="7">
+        <f>VLOOKUP($A41, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>54</v>
+      </c>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B42" s="6" t="str">
-        <f>VLOOKUP($A42, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
-        <v>Noraquick (Gabapentin 300mg)</v>
-      </c>
-      <c r="C42" s="7">
-        <f>VLOOKUP($A42, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
-        <v>6000</v>
-      </c>
-      <c r="D42" s="7">
-        <f>VLOOKUP($A42, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
-        <v>54</v>
-      </c>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10">
+        <v>205</v>
+      </c>
+      <c r="F42" s="10" t="str">
+        <f>VLOOKUP($E42, [2]Index!$A$2:$B$69, 2, FALSE)</f>
+        <v>Trần Thị Diễm</v>
+      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10">
-        <v>142</v>
-      </c>
-      <c r="F43" s="10" t="str">
-        <f>VLOOKUP($E43, [2]Index!$A$2:$B$69, 2, FALSE)</f>
-        <v>Lý Văn Phái</v>
-      </c>
+      <c r="A43" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" s="6" t="str">
+        <f>VLOOKUP($A43, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
+        <v>Aluantine (Almagate 500mg)</v>
+      </c>
+      <c r="C43" s="7">
+        <f>VLOOKUP($A43, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
+        <v>8000</v>
+      </c>
+      <c r="D43" s="7">
+        <f>VLOOKUP($A43, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>42</v>
+      </c>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="10"/>
@@ -2259,41 +2347,35 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10" t="e">
-        <f>VLOOKUP($E45, [2]Index!$A$2:$B$69, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="A45" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45" s="6" t="str">
+        <f>VLOOKUP($A45, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
+        <v>Fagendol (Flunarizine 5mg)</v>
+      </c>
+      <c r="C45" s="7">
+        <f>VLOOKUP($A45, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
+        <v>2600</v>
+      </c>
+      <c r="D45" s="7">
+        <f>VLOOKUP($A45, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B46" s="6" t="str">
-        <f>VLOOKUP($A46, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
-        <v>Celevox (Levofloxacin 500mg)</v>
-      </c>
-      <c r="C46" s="7">
-        <f>VLOOKUP($A46, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
-        <v>12000</v>
-      </c>
-      <c r="D46" s="7">
-        <f>VLOOKUP($A46, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
-        <v>42</v>
-      </c>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
+      <c r="E46">
+        <v>8</v>
+      </c>
+      <c r="F46" s="10" t="str">
+        <f>VLOOKUP($E46, [2]Index!$A$2:$B$69, 2, FALSE)</f>
+        <v>Lý Thanh Lãm</v>
+      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="10"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10">
+      <c r="E47">
         <v>142</v>
       </c>
       <c r="F47" s="10" t="str">
@@ -2301,194 +2383,8 @@
         <v>Lý Văn Phái</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="10"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10">
-        <v>205</v>
-      </c>
-      <c r="F48" s="10" t="str">
-        <f>VLOOKUP($E48, [2]Index!$A$2:$B$69, 2, FALSE)</f>
-        <v>Trần Thị Diễm</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="10"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10" t="e">
-        <f>VLOOKUP($E49, [2]Index!$A$2:$B$69, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B50" s="6" t="str">
-        <f>VLOOKUP($A50, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
-        <v>Esotrax (Esomeprazole 20mg)</v>
-      </c>
-      <c r="C50" s="7">
-        <f>VLOOKUP($A50, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
-        <v>10800</v>
-      </c>
-      <c r="D50" s="7">
-        <f>VLOOKUP($A50, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
-        <v>50</v>
-      </c>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="10"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10">
-        <v>205</v>
-      </c>
-      <c r="F51" s="10" t="str">
-        <f>VLOOKUP($E51, [2]Index!$A$2:$B$69, 2, FALSE)</f>
-        <v>Trần Thị Diễm</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="10"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10" t="e">
-        <f>VLOOKUP($E52, [2]Index!$A$2:$B$69, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="10"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10" t="e">
-        <f>VLOOKUP($E53, [2]Index!$A$2:$B$69, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B54" s="6" t="str">
-        <f>VLOOKUP($A54, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
-        <v>Lucass 200 (Cefpodoxime)</v>
-      </c>
-      <c r="C54" s="7">
-        <f>VLOOKUP($A54, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
-        <v>14700</v>
-      </c>
-      <c r="D54" s="7">
-        <f>VLOOKUP($A54, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
-        <v>54</v>
-      </c>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="10"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10">
-        <v>205</v>
-      </c>
-      <c r="F55" s="10" t="str">
-        <f>VLOOKUP($E55, [2]Index!$A$2:$B$69, 2, FALSE)</f>
-        <v>Trần Thị Diễm</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="10"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10" t="e">
-        <f>VLOOKUP($E56, [2]Index!$A$2:$B$69, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="10"/>
-      <c r="B57" s="10"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10" t="e">
-        <f>VLOOKUP($E57, [2]Index!$A$2:$B$69, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B58" s="6" t="str">
-        <f>VLOOKUP($A58, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
-        <v>Aluantine (Almagate 500mg)</v>
-      </c>
-      <c r="C58" s="7">
-        <f>VLOOKUP($A58, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
-        <v>8000</v>
-      </c>
-      <c r="D58" s="7">
-        <f>VLOOKUP($A58, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
-        <v>42</v>
-      </c>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="10"/>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10">
-        <v>205</v>
-      </c>
-      <c r="F59" s="10" t="str">
-        <f>VLOOKUP($E59, [2]Index!$A$2:$B$69, 2, FALSE)</f>
-        <v>Trần Thị Diễm</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="10"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10" t="e">
-        <f>VLOOKUP($E60, [2]Index!$A$2:$B$69, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="10"/>
-      <c r="B61" s="10"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10" t="e">
-        <f>VLOOKUP($E61, [2]Index!$A$2:$B$69, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:F61" xr:uid="{A954C76C-B696-D34B-A919-448F4AC0AEC0}"/>
+  <autoFilter ref="A1:F45" xr:uid="{A954C76C-B696-D34B-A919-448F4AC0AEC0}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>